--- a/Tests/Validation/Wheat/data/FAR HYC W18-08-1.xlsx
+++ b/Tests/Validation/Wheat/data/FAR HYC W18-08-1.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Observed" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/Tests/Validation/Wheat/data/FAR HYC W18-08-1.xlsx
+++ b/Tests/Validation/Wheat/data/FAR HYC W18-08-1.xlsx
@@ -508,22 +508,22 @@
       </c>
       <c r="Q1" t="inlineStr">
         <is>
-          <t>Wheat.Structure.Height</t>
+          <t>Wheat.Leaf.Height</t>
         </is>
       </c>
       <c r="R1" t="inlineStr">
         <is>
-          <t>Wheat.Structure.Height.se</t>
+          <t>Wheat.Leaf.Height.se</t>
         </is>
       </c>
       <c r="S1" t="inlineStr">
         <is>
-          <t>Wheat.Structure.TotalStemPopn</t>
+          <t>Wheat.Leaf.StemPopulation</t>
         </is>
       </c>
       <c r="T1" t="inlineStr">
         <is>
-          <t>Wheat.Structure.TotalStemPopn.se</t>
+          <t>Wheat.Leaf.StemPopulation.se</t>
         </is>
       </c>
       <c r="U1" t="inlineStr">

--- a/Tests/Validation/Wheat/data/FAR HYC W18-08-1.xlsx
+++ b/Tests/Validation/Wheat/data/FAR HYC W18-08-1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\ApsimX\Tests\Validation\Wheat\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99E6C879-26AC-47CF-964C-38F9B69796A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E206259-0F75-47CC-AFB0-DB62F0C5EB87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -503,10 +503,15 @@
   <dimension ref="A1:AA140"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <pane ySplit="1" topLeftCell="A140" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="44.21875" customWidth="1"/>
+    <col min="2" max="2" width="23.21875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
@@ -801,7 +806,7 @@
         <v>27</v>
       </c>
       <c r="F16">
-        <v>1.0169999999999999</v>
+        <v>1.017E-2</v>
       </c>
       <c r="G16">
         <v>7.8555712713971396E-2</v>
@@ -1042,7 +1047,7 @@
         <v>27</v>
       </c>
       <c r="F30">
-        <v>1.4675</v>
+        <v>1.4675000000000001E-2</v>
       </c>
       <c r="G30">
         <v>0.16155623375984801</v>
@@ -1283,7 +1288,7 @@
         <v>27</v>
       </c>
       <c r="F44">
-        <v>1.27</v>
+        <v>1.2699999999999999E-2</v>
       </c>
       <c r="G44">
         <v>0.10936559483372001</v>
@@ -1524,7 +1529,7 @@
         <v>27</v>
       </c>
       <c r="F58">
-        <v>1.3174999999999999</v>
+        <v>1.3174999999999999E-2</v>
       </c>
       <c r="G58">
         <v>0.23093812302577199</v>
@@ -1765,7 +1770,7 @@
         <v>27</v>
       </c>
       <c r="F72">
-        <v>1.45275</v>
+        <v>1.45275E-2</v>
       </c>
       <c r="G72">
         <v>0.19677202333326399</v>
@@ -2020,7 +2025,7 @@
         <v>27</v>
       </c>
       <c r="F87">
-        <v>0.92149999999999999</v>
+        <v>9.2149999999999992E-3</v>
       </c>
       <c r="G87">
         <v>9.1511838942656298E-2</v>
@@ -2247,7 +2252,7 @@
         <v>27</v>
       </c>
       <c r="F100">
-        <v>1.20625</v>
+        <v>1.20625E-2</v>
       </c>
       <c r="G100">
         <v>3.7296950277469099E-2</v>
@@ -2474,7 +2479,7 @@
         <v>27</v>
       </c>
       <c r="F113">
-        <v>1.147</v>
+        <v>1.1469999999999999E-2</v>
       </c>
       <c r="G113">
         <v>2.73617738216415E-2</v>
@@ -2701,7 +2706,7 @@
         <v>27</v>
       </c>
       <c r="F126">
-        <v>1.25325</v>
+        <v>1.25325E-2</v>
       </c>
       <c r="G126">
         <v>0.115275304525008</v>
@@ -2928,7 +2933,7 @@
         <v>27</v>
       </c>
       <c r="F139">
-        <v>1.4335</v>
+        <v>1.4335000000000001E-2</v>
       </c>
       <c r="G139">
         <v>7.7388091245789603E-2</v>
